--- a/degree_planner_2022.xlsx
+++ b/degree_planner_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\GitHub\degreemap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uniwa.uwa.edu.au\userhome\staff8\00098638\My Documents\GitHub\degreemap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E1053A-AD65-42B0-93AB-C1543828238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33FEC4-740F-4912-81B9-604AECD58C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0E07EA3F-2189-4555-910A-EC8CBBBFD581}"/>
+    <workbookView xWindow="315" yWindow="990" windowWidth="26595" windowHeight="14055" activeTab="2" xr2:uid="{0E07EA3F-2189-4555-910A-EC8CBBBFD581}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="161">
   <si>
     <t>Year</t>
   </si>
@@ -510,13 +510,22 @@
   </si>
   <si>
     <t>*need for CITS2211</t>
+  </si>
+  <si>
+    <t>CITS4407</t>
+  </si>
+  <si>
+    <t>CITS5506</t>
+  </si>
+  <si>
+    <t>CITS5206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +546,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,18 +625,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -832,25 +850,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,74 +875,10 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -956,189 +908,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2851,454 +2685,470 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20030A6-4749-4478-B984-6BA99368B246}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.140625" style="28" customWidth="1"/>
-    <col min="3" max="10" width="16.42578125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="28"/>
-    <col min="12" max="12" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="2" width="7.140625" style="21" customWidth="1"/>
+    <col min="3" max="10" width="16.42578125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="21"/>
+    <col min="12" max="12" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="44" t="s">
         <v>94</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="L3" s="44" t="s">
+      <c r="J3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="44" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="51" t="s">
+      <c r="J6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="L6" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="56"/>
-      <c r="L6" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="58"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="40" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="49" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="60" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="40" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="59"/>
+      <c r="J8" s="43" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="66" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="39" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="43"/>
+      <c r="J10" s="62" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="42" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="43" t="s">
         <v>115</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="60" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="40" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="40" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="63" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="40" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="43"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="56"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="42" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="64" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="40" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="59"/>
+      <c r="J16" s="64" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="69" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="44" t="s">
         <v>125</v>
       </c>
       <c r="F18" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="42" t="s">
         <v>127</v>
       </c>
@@ -3308,19 +3158,19 @@
       <c r="H19" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="42" t="s">
         <v>129</v>
       </c>
@@ -3330,17 +3180,17 @@
       <c r="H20" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="42" t="s">
         <v>130</v>
       </c>
@@ -3350,49 +3200,47 @@
       <c r="H21" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="56"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="44" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="42" t="s">
@@ -3404,19 +3252,19 @@
       <c r="H23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="59"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="40" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="44" t="s">
         <v>134</v>
       </c>
       <c r="F24" s="42" t="s">
@@ -3428,207 +3276,216 @@
       <c r="H24" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="J25" s="59"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="74" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="56"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="70" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="70" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="70" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="59"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="74" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="J30" s="56"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="70" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="70" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="59"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="76" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="G33" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="67"/>
-    </row>
-    <row r="34" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="61"/>
+    </row>
+    <row r="34" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="77"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3847,18 +3704,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3881,18 +3738,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDD92E-EC78-449B-8685-38D4C2A805E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8C462-A96A-4A3F-AE7B-A00E812062C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDD92E-EC78-449B-8685-38D4C2A805E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/degree_planner_2022.xlsx
+++ b/degree_planner_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uniwa.uwa.edu.au\userhome\staff8\00098638\My Documents\GitHub\degreemap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33FEC4-740F-4912-81B9-604AECD58C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F632E7-70F2-4074-82C3-BAED63A78ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="990" windowWidth="26595" windowHeight="14055" activeTab="2" xr2:uid="{0E07EA3F-2189-4555-910A-EC8CBBBFD581}"/>
+    <workbookView xWindow="30840" yWindow="1020" windowWidth="26595" windowHeight="14055" activeTab="2" xr2:uid="{0E07EA3F-2189-4555-910A-EC8CBBBFD581}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -882,11 +882,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -935,12 +972,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -968,11 +999,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1846,7 +1894,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:I1"/>
@@ -2685,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20030A6-4749-4478-B984-6BA99368B246}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,14 +2747,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -2715,16 +2763,16 @@
       <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>89</v>
       </c>
       <c r="L1" s="22" t="s">
@@ -2738,28 +2786,28 @@
       <c r="B2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="23" t="s">
@@ -2769,28 +2817,28 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="41" t="s">
         <v>94</v>
       </c>
       <c r="L3" s="24" t="s">
@@ -2800,28 +2848,28 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="72" t="s">
         <v>158</v>
       </c>
       <c r="L4" s="25" t="s">
@@ -2831,44 +2879,44 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>99</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="41" t="s">
         <v>104</v>
       </c>
       <c r="L6" s="26" t="s">
@@ -2878,54 +2926,54 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="47"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="47" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="47"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="30"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="50"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -2934,182 +2982,184 @@
       <c r="B10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="44" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="65"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="41" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="63" t="s">
-        <v>133</v>
-      </c>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="47"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="30"/>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="60"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="61" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="65"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="61" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="65"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="45"/>
+      <c r="H17" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="61"/>
+      <c r="I17" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
@@ -3118,186 +3168,184 @@
       <c r="B18" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="60"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="30"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="60"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="60"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="60"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="60"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="40" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="32"/>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="61"/>
+      <c r="I25" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
@@ -3307,81 +3355,81 @@
         <v>92</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="59"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="47"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="60"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
-      <c r="D28" s="47"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="60"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="47"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="60"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
@@ -3389,77 +3437,77 @@
         <v>103</v>
       </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="J30" s="60"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="47"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="60"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="47"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="60"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="33"/>
       <c r="C33" s="32"/>
-      <c r="D33" s="50"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="56" t="s">
         <v>152</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="61"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
@@ -3704,18 +3752,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3738,18 +3786,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDD92E-EC78-449B-8685-38D4C2A805E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8C462-A96A-4A3F-AE7B-A00E812062C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDD92E-EC78-449B-8685-38D4C2A805E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>